--- a/builddata/foodsecurity/FAO_newnames.xlsx
+++ b/builddata/foodsecurity/FAO_newnames.xlsx
@@ -191,10 +191,10 @@
     <t>num_severe</t>
   </si>
   <si>
-    <t>ISO</t>
+    <t>num_moderate</t>
   </si>
   <si>
-    <t>num_moderate</t>
+    <t>iso</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:B1032220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16386" spans="1:1" x14ac:dyDescent="0.2">
